--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82507.23826450841</v>
+        <v>-84077.64106744036</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>11008444.64348516</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>25284077.26771089</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4360217.812541762</v>
+        <v>2839341.372362351</v>
       </c>
     </row>
     <row r="11">
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
@@ -8769,13 +8769,13 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
@@ -8784,7 +8784,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8933,16 +8933,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>150.3839754851235</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,34 +9237,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,25 +9480,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -9641,25 +9641,25 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>61.18167021676314</v>
@@ -9972,7 +9972,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,16 +10273,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>101.5955875616828</v>
@@ -10355,16 +10355,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10428,22 +10428,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10586,22 +10586,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10665,25 +10665,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,16 +10747,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>101.5955875616828</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11230,7 +11230,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,25 +11455,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23042,31 +23042,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23200,28 +23200,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23288,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23361,13 +23361,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23437,28 +23437,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23525,16 +23525,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23753,31 +23753,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23829,34 +23829,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23990,28 +23990,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24072,25 +24072,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24154,16 +24154,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24233,25 +24233,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24318,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -24464,31 +24464,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24546,7 +24546,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24701,31 +24701,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24777,34 +24777,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24865,16 +24865,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -24947,16 +24947,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25020,22 +25020,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25178,22 +25178,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25257,25 +25257,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25339,16 +25339,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -25412,31 +25412,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25494,22 +25494,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25649,31 +25649,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25728,28 +25728,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25886,31 +25886,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25965,28 +25965,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26047,25 +26047,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>376275.9193600624</v>
+        <v>85193.65327094839</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377346.919858704</v>
+        <v>319316.4622081162</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377346.919858704</v>
+        <v>326259.6094678116</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>377346.919858704</v>
+        <v>181900.8121653067</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>377346.919858704</v>
+        <v>191485.0629298684</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>377346.919858704</v>
+        <v>280631.8991132627</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>377346.919858704</v>
+        <v>213379.7869579266</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>377346.919858704</v>
+        <v>170191.4731115486</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>377346.919858704</v>
+        <v>288751.2950374187</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>377346.919858704</v>
+        <v>228682.0580294559</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>377346.919858704</v>
+        <v>199954.5901065214</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>377346.919858704</v>
+        <v>181988.206111618</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>377346.919858704</v>
+        <v>159905.6403200841</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915088</v>
+        <v>10953.46970626479</v>
       </c>
       <c r="E2" t="n">
-        <v>51444.24666743861</v>
+        <v>43983.18782664879</v>
       </c>
       <c r="F2" t="n">
-        <v>51444.24666743861</v>
+        <v>44875.87818860963</v>
       </c>
       <c r="G2" t="n">
-        <v>51444.24666743861</v>
+        <v>26315.46139257327</v>
       </c>
       <c r="H2" t="n">
-        <v>51444.24666743861</v>
+        <v>27547.72220515978</v>
       </c>
       <c r="I2" t="n">
-        <v>51444.24666743861</v>
+        <v>39009.45828588189</v>
       </c>
       <c r="J2" t="n">
-        <v>51444.24666743861</v>
+        <v>30362.7581516244</v>
       </c>
       <c r="K2" t="n">
-        <v>51444.24666743861</v>
+        <v>24809.97494280437</v>
       </c>
       <c r="L2" t="n">
-        <v>51444.24666743861</v>
+        <v>40053.38061898766</v>
       </c>
       <c r="M2" t="n">
-        <v>51444.24666743861</v>
+        <v>32330.19300367818</v>
       </c>
       <c r="N2" t="n">
-        <v>51444.24666743861</v>
+        <v>28636.6614135866</v>
       </c>
       <c r="O2" t="n">
-        <v>51444.24666743861</v>
+        <v>26326.69775709901</v>
       </c>
       <c r="P2" t="n">
-        <v>51444.24666743861</v>
+        <v>23487.51072675893</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>10953.4697062648</v>
       </c>
       <c r="E4" t="n">
-        <v>28515.99717915458</v>
+        <v>21208.18916083008</v>
       </c>
       <c r="F4" t="n">
-        <v>28515.99717915458</v>
+        <v>22100.87952279091</v>
       </c>
       <c r="G4" t="n">
-        <v>28515.99717915458</v>
+        <v>3540.462726754552</v>
       </c>
       <c r="H4" t="n">
-        <v>28515.99717915458</v>
+        <v>4772.723539341059</v>
       </c>
       <c r="I4" t="n">
-        <v>28515.99717915458</v>
+        <v>16234.45962006318</v>
       </c>
       <c r="J4" t="n">
-        <v>28515.99717915458</v>
+        <v>7587.759485805674</v>
       </c>
       <c r="K4" t="n">
-        <v>28515.99717915458</v>
+        <v>2034.976276985647</v>
       </c>
       <c r="L4" t="n">
-        <v>28515.99717915458</v>
+        <v>17278.38195316895</v>
       </c>
       <c r="M4" t="n">
-        <v>28515.99717915458</v>
+        <v>9555.194337859457</v>
       </c>
       <c r="N4" t="n">
-        <v>28515.99717915458</v>
+        <v>5861.662747767872</v>
       </c>
       <c r="O4" t="n">
-        <v>28515.99717915458</v>
+        <v>3551.699091280288</v>
       </c>
       <c r="P4" t="n">
-        <v>28515.99717915458</v>
+        <v>712.5120609402068</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33368.99470825871</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-33368.99470825871</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>-33368.99470825871</v>
+        <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-113783.3626167243</v>
+        <v>-113936.6134391896</v>
       </c>
       <c r="F6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="G6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="H6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="I6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.38656081038</v>
       </c>
       <c r="J6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="K6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="L6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.38656081039</v>
       </c>
       <c r="M6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="N6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="O6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
       <c r="P6" t="n">
-        <v>19316.6373832757</v>
+        <v>19163.3865608104</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84077.64106744036</v>
+        <v>-70351.28293002227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11008444.64348516</v>
+        <v>11132708.25685823</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25284077.26771089</v>
+        <v>25408340.88108395</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2839341.372362351</v>
+        <v>2756026.145368536</v>
       </c>
     </row>
     <row r="11">
@@ -8693,7 +8695,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8769,10 +8771,10 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8783,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9012,19 +9014,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9090,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9328,7 +9330,7 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9562,13 +9564,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,10 +9801,10 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
@@ -9811,7 +9813,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9954,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10039,10 +10041,10 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
@@ -10127,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10279,10 +10281,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
         <v>101.5955875616828</v>
@@ -10352,7 +10354,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10516,7 +10518,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
@@ -10665,7 +10667,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10747,16 +10749,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
         <v>101.5955875616828</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11218,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -11230,7 +11232,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11458,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23285,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
         <v>113.4004983079896</v>
@@ -23294,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23361,10 +23363,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
         <v>51.84373129681028</v>
@@ -23373,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -23522,22 +23524,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23604,19 +23606,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23680,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23920,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -23990,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -24008,10 +24010,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24075,7 +24077,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
@@ -24154,13 +24156,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
@@ -24230,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -24248,7 +24250,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>173.7492132756177</v>
@@ -24306,28 +24308,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24391,10 +24393,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24546,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -24631,10 +24633,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24719,10 +24721,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>173.7492132756177</v>
@@ -24871,10 +24873,10 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -24944,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
@@ -25020,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>61.18167021676314</v>
@@ -25032,10 +25034,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25108,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25257,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>61.18167021676314</v>
@@ -25339,16 +25341,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -25512,7 +25514,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25728,7 +25730,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25810,7 +25812,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25822,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>173.7492132756177</v>
@@ -26050,7 +26052,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>92.09541281912071</v>
@@ -26065,7 +26067,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319316.4622081162</v>
+        <v>281822.62736734</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>326259.6094678116</v>
+        <v>257407.2830265637</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>181900.8121653067</v>
+        <v>178032.8048269036</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>191485.0629298684</v>
+        <v>255219.2967190486</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>280631.8991132627</v>
+        <v>191440.6432236616</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>213379.7869579266</v>
+        <v>191590.6143084067</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>170191.4731115486</v>
+        <v>210608.4641312597</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>288751.2950374187</v>
+        <v>273667.3660632239</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>228682.0580294559</v>
+        <v>246349.5939647874</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>199954.5901065214</v>
+        <v>192943.1099506649</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>181988.206111618</v>
+        <v>188982.3429356603</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159905.6403200841</v>
+        <v>187398.2196802687</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>10953.46970626479</v>
       </c>
       <c r="E2" t="n">
-        <v>43983.18782664879</v>
+        <v>39162.55191854898</v>
       </c>
       <c r="F2" t="n">
-        <v>44875.87818860963</v>
+        <v>36023.43621759204</v>
       </c>
       <c r="G2" t="n">
-        <v>26315.46139257327</v>
+        <v>25818.14616335002</v>
       </c>
       <c r="H2" t="n">
-        <v>27547.72220515978</v>
+        <v>35742.12369234009</v>
       </c>
       <c r="I2" t="n">
-        <v>39009.45828588189</v>
+        <v>27542.01110007605</v>
       </c>
       <c r="J2" t="n">
-        <v>30362.7581516244</v>
+        <v>27561.29309668612</v>
       </c>
       <c r="K2" t="n">
-        <v>24809.97494280437</v>
+        <v>30006.44521676723</v>
       </c>
       <c r="L2" t="n">
-        <v>40053.38061898766</v>
+        <v>38114.01832230548</v>
       </c>
       <c r="M2" t="n">
-        <v>32330.19300367818</v>
+        <v>34601.7333382208</v>
       </c>
       <c r="N2" t="n">
-        <v>28636.6614135866</v>
+        <v>27735.1853935479</v>
       </c>
       <c r="O2" t="n">
-        <v>26326.69775709901</v>
+        <v>27225.94392019016</v>
       </c>
       <c r="P2" t="n">
-        <v>23487.51072675893</v>
+        <v>27022.27093021123</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>10953.4697062648</v>
       </c>
       <c r="E4" t="n">
-        <v>21208.18916083008</v>
+        <v>16387.55325273026</v>
       </c>
       <c r="F4" t="n">
-        <v>22100.87952279091</v>
+        <v>13248.43755177332</v>
       </c>
       <c r="G4" t="n">
-        <v>3540.462726754552</v>
+        <v>3043.1474975313</v>
       </c>
       <c r="H4" t="n">
-        <v>4772.723539341059</v>
+        <v>12967.12502652138</v>
       </c>
       <c r="I4" t="n">
-        <v>16234.45962006318</v>
+        <v>4767.012434257326</v>
       </c>
       <c r="J4" t="n">
-        <v>7587.759485805674</v>
+        <v>4786.2944308674</v>
       </c>
       <c r="K4" t="n">
-        <v>2034.976276985647</v>
+        <v>7231.446550948505</v>
       </c>
       <c r="L4" t="n">
-        <v>17278.38195316895</v>
+        <v>15339.01965648677</v>
       </c>
       <c r="M4" t="n">
-        <v>9555.194337859457</v>
+        <v>11826.73467240208</v>
       </c>
       <c r="N4" t="n">
-        <v>5861.662747767872</v>
+        <v>4960.186727729181</v>
       </c>
       <c r="O4" t="n">
-        <v>3551.699091280288</v>
+        <v>4450.945254371439</v>
       </c>
       <c r="P4" t="n">
-        <v>712.5120609402068</v>
+        <v>4247.272264392515</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-113936.6134391896</v>
+        <v>-113936.6134391897</v>
       </c>
       <c r="F6" t="n">
         <v>19163.3865608104</v>
@@ -26537,10 +26539,10 @@
         <v>19163.3865608104</v>
       </c>
       <c r="H6" t="n">
+        <v>19163.38656081039</v>
+      </c>
+      <c r="I6" t="n">
         <v>19163.3865608104</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19163.38656081038</v>
       </c>
       <c r="J6" t="n">
         <v>19163.3865608104</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70351.28293002227</v>
+        <v>-195461.1817274988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11132708.25685823</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25408340.88108395</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2756026.145368536</v>
+        <v>4360217.812541762</v>
       </c>
     </row>
     <row r="11">
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8774,19 +8774,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9014,19 +9014,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,16 +9090,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
@@ -9403,19 +9403,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
@@ -9482,25 +9482,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9573,7 +9573,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -9640,28 +9640,28 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,10 +9801,10 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
@@ -9813,7 +9813,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,22 +9959,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10041,10 +10041,10 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10135,7 +10135,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
         <v>96.22962838366004</v>
@@ -10354,19 +10354,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10433,16 +10433,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
@@ -10518,7 +10518,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
@@ -10588,22 +10588,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10670,22 +10670,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23044,31 +23044,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23287,16 +23287,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23366,19 +23366,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23524,22 +23524,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23606,19 +23606,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23682,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -23995,19 +23995,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -24074,25 +24074,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24232,28 +24232,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24308,28 +24308,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24393,10 +24393,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24466,31 +24466,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24551,22 +24551,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24633,10 +24633,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24703,22 +24703,22 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,34 +24779,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24867,13 +24867,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -24946,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25025,16 +25025,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25180,22 +25180,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25262,22 +25262,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25496,25 +25496,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25651,31 +25651,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25733,25 +25733,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25812,7 +25812,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25888,31 +25888,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25967,28 +25967,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26049,22 +26049,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>85193.65327094839</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>281822.62736734</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>257407.2830265637</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>178032.8048269036</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>255219.2967190486</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>191440.6432236616</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>191590.6143084067</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>210608.4641312597</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>273667.3660632239</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>246349.5939647874</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>192943.1099506649</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188982.3429356603</v>
+        <v>377346.919858704</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187398.2196802687</v>
+        <v>377346.919858704</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>10953.46970626479</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>39162.55191854898</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="F2" t="n">
-        <v>36023.43621759204</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="G2" t="n">
-        <v>25818.14616335002</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="H2" t="n">
-        <v>35742.12369234009</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="I2" t="n">
-        <v>27542.01110007605</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="J2" t="n">
-        <v>27561.29309668612</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="K2" t="n">
-        <v>30006.44521676723</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="L2" t="n">
-        <v>38114.01832230548</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="M2" t="n">
-        <v>34601.7333382208</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="N2" t="n">
-        <v>27735.1853935479</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="O2" t="n">
-        <v>27225.94392019016</v>
+        <v>51444.24666743861</v>
       </c>
       <c r="P2" t="n">
-        <v>27022.27093021123</v>
+        <v>51444.24666743861</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
-        <v>10953.4697062648</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>16387.55325273026</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
-        <v>13248.43755177332</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="G4" t="n">
-        <v>3043.1474975313</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="H4" t="n">
-        <v>12967.12502652138</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="I4" t="n">
-        <v>4767.012434257326</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="J4" t="n">
-        <v>4786.2944308674</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="K4" t="n">
-        <v>7231.446550948505</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="L4" t="n">
-        <v>15339.01965648677</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="M4" t="n">
-        <v>11826.73467240208</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="N4" t="n">
-        <v>4960.186727729181</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="O4" t="n">
-        <v>4450.945254371439</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="P4" t="n">
-        <v>4247.272264392515</v>
+        <v>28669.24800161988</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-113936.6134391897</v>
+        <v>-128746.6302783035</v>
       </c>
       <c r="F6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696497</v>
       </c>
       <c r="G6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696494</v>
       </c>
       <c r="H6" t="n">
-        <v>19163.38656081039</v>
+        <v>4353.369721696497</v>
       </c>
       <c r="I6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696494</v>
       </c>
       <c r="J6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696497</v>
       </c>
       <c r="K6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696494</v>
       </c>
       <c r="L6" t="n">
-        <v>19163.38656081039</v>
+        <v>4353.369721696497</v>
       </c>
       <c r="M6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696494</v>
       </c>
       <c r="N6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696497</v>
       </c>
       <c r="O6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696494</v>
       </c>
       <c r="P6" t="n">
-        <v>19163.3865608104</v>
+        <v>4353.369721696497</v>
       </c>
     </row>
   </sheetData>
